--- a/nft/generator/template/input/quiz.xlsx
+++ b/nft/generator/template/input/quiz.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhiqiang/workspace/github/game-of-nfts/gon-toolbox/nft/generator/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhiqiang/workspace/github/game-of-nfts/gon-toolbox/nft/generator/template/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E2F26E-E8A6-494D-B19F-42E6EE0247B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E6950-9182-A844-A941-C69D6C11667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="27500" windowHeight="17440" xr2:uid="{74FB92D0-F7C6-B54E-B5B2-DBF7C631C63D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Symbol</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
   </si>
   <si>
     <t>URI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Recipient</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -486,23 +478,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D8710-3B58-454A-9C82-ADE32A0D4311}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,9 +524,6 @@
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -545,35 +534,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58DA2D-A5F0-DD4D-986D-7F5EBBDB21E1}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -600,19 +583,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/nft/generator/template/input/quiz.xlsx
+++ b/nft/generator/template/input/quiz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhiqiang/workspace/github/game-of-nfts/gon-toolbox/nft/generator/template/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E6950-9182-A844-A941-C69D6C11667C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9E8E71-AB80-B146-9BE3-3519B7941513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="27500" windowHeight="17440" xr2:uid="{74FB92D0-F7C6-B54E-B5B2-DBF7C631C63D}"/>
+    <workbookView xWindow="1020" yWindow="0" windowWidth="27500" windowHeight="17440" activeTab="2" xr2:uid="{74FB92D0-F7C6-B54E-B5B2-DBF7C631C63D}"/>
   </bookViews>
   <sheets>
     <sheet name="class" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,23 +85,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LastRecipient</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EscapeFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EncryptedFlow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Encryption</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow</t>
+  </si>
+  <si>
+    <t>Answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +120,15 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -157,11 +157,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0D8710-3B58-454A-9C82-ADE32A0D4311}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -567,35 +570,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CF803F-C354-9941-A8EA-7A39CD4B4A5C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
